--- a/Aluguel/devolucoes/trades_cash.xlsx
+++ b/Aluguel/devolucoes/trades_cash.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$92</definedName>
+  </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>codigo</t>
   </si>
@@ -32,9 +35,6 @@
     <t>venda</t>
   </si>
   <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
     <t>ALPA4</t>
   </si>
   <si>
@@ -47,9 +47,6 @@
     <t>ASAI3</t>
   </si>
   <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>BBDC3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
     <t>BBSE3</t>
   </si>
   <si>
@@ -71,12 +65,6 @@
     <t>BPAC11</t>
   </si>
   <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
     <t>BRFS3</t>
   </si>
   <si>
@@ -92,9 +80,6 @@
     <t>CCRO3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
     <t>CMIG4</t>
   </si>
   <si>
@@ -119,18 +104,9 @@
     <t>CSNA3</t>
   </si>
   <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>ECOR3</t>
-  </si>
-  <si>
     <t>EGIE3</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>ENEV3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
     <t>EQTL3</t>
   </si>
   <si>
@@ -173,30 +146,15 @@
     <t>HAPV3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
     <t>JHSF3</t>
   </si>
   <si>
-    <t>KLBN11</t>
-  </si>
-  <si>
     <t>LCAM3</t>
   </si>
   <si>
@@ -233,9 +191,6 @@
     <t>PETZ3</t>
   </si>
   <si>
-    <t>POSI3</t>
-  </si>
-  <si>
     <t>PRIO3</t>
   </si>
   <si>
@@ -248,9 +203,6 @@
     <t>RAIL3</t>
   </si>
   <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
     <t>RENT3</t>
   </si>
   <si>
@@ -269,15 +221,9 @@
     <t>SULA11</t>
   </si>
   <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
     <t>TAEE11</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>TOTS3</t>
   </si>
   <si>
@@ -291,9 +237,6 @@
   </si>
   <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
   </si>
   <si>
     <t>VIVT3</t>
@@ -338,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +289,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,12 +573,13 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,737 +592,638 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>-21800</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-42732</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>-800</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-33289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-2900</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-32100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-4000</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-30660</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-1600</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-27588</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-30300</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-27153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-7100</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-20458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>-6900</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-19056</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>-23400</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-17134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>-3400</v>
+        <v>56</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-14979</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>-1300</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-12375</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>-2900</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-10748</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>-6500</v>
+        <v>71</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-10373</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>-1700</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-10042</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>-1300</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-10039</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>-5400</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-9704</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>-1300</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-9146</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>-4200</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-8839</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>-2700</v>
+        <v>58</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-8365</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>-5600</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-8208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>-5700</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-8100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>-5600</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-7950</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>-5600</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-7901</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>-9100</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-7842</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>-1000</v>
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-7756</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>-7800</v>
+        <v>66</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-7738</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>-2000</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-7173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>-5800</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-6892</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>-3200</v>
+        <v>43</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-6855</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>-1100</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-5882</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>-1400</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-5600</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>-1500</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-5207</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>-1700</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-5150</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>-1300</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-4637</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>-1800</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-4519</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>-1200</v>
+        <v>18</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-4462</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>-3700</v>
+        <v>25</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-4108</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>-1100</v>
+        <v>65</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-3763</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>-6300</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
+        <v>-3681</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>-1300</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-3672</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>-5100</v>
+        <v>48</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-3602</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>-500</v>
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-3573</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>-1500</v>
+        <v>62</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-3424</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>-5500</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-3409</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>-3500</v>
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>-3278</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>-800</v>
+        <v>13</v>
+      </c>
+      <c r="B47" s="3">
+        <v>-3228</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>-22000</v>
+        <v>70</v>
+      </c>
+      <c r="B48" s="3">
+        <v>-3037</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>-2000</v>
+        <v>72</v>
+      </c>
+      <c r="B49" s="3">
+        <v>-2999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>-800</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="3">
+        <v>-2948</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>-6300</v>
+        <v>60</v>
+      </c>
+      <c r="B51" s="3">
+        <v>-2591</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>-23600</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="3">
+        <v>-2539</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>-23900</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="3">
+        <v>-2392</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>-6500</v>
+        <v>42</v>
+      </c>
+      <c r="B54" s="3">
+        <v>-2319</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>-1500</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>-2113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>-4100</v>
+        <v>47</v>
+      </c>
+      <c r="B56" s="3">
+        <v>-1994</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>-1600</v>
+        <v>12</v>
+      </c>
+      <c r="B57" s="3">
+        <v>-1868</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>-4900</v>
+        <v>41</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-1810</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>-2200</v>
+        <v>28</v>
+      </c>
+      <c r="B59" s="3">
+        <v>-1684</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>-14400</v>
+        <v>26</v>
+      </c>
+      <c r="B60" s="3">
+        <v>-1657</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>-1700</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="3">
+        <v>-1591</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>-1500</v>
+        <v>63</v>
+      </c>
+      <c r="B62" s="3">
+        <v>-1578</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>-1400</v>
+        <v>20</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-1499</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>-4200</v>
+      <c r="B64" s="3">
+        <v>-1441</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>-800</v>
+        <v>59</v>
+      </c>
+      <c r="B65" s="3">
+        <v>-1321</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>-13500</v>
+        <v>39</v>
+      </c>
+      <c r="B66" s="3">
+        <v>-1189</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>-22800</v>
+        <v>50</v>
+      </c>
+      <c r="B67" s="3">
+        <v>-1165</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>-1500</v>
+        <v>37</v>
+      </c>
+      <c r="B68" s="3">
+        <v>-1147</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>-400</v>
+        <v>22</v>
+      </c>
+      <c r="B69" s="3">
+        <v>-1015</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>-4200</v>
+        <v>33</v>
+      </c>
+      <c r="B70" s="3">
+        <v>-785</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>-1400</v>
+        <v>2</v>
+      </c>
+      <c r="B71" s="3">
+        <v>-725</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>-5300</v>
+        <v>30</v>
+      </c>
+      <c r="B72" s="3">
+        <v>-137</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>-6100</v>
-      </c>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>-2800</v>
-      </c>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>-3000</v>
-      </c>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>-1000</v>
-      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>-1800</v>
-      </c>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>-1700</v>
-      </c>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>-2500</v>
-      </c>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>-1400</v>
-      </c>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>-3600</v>
-      </c>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>-1100</v>
-      </c>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>-4100</v>
-      </c>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>-2600</v>
-      </c>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>-5400</v>
-      </c>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>-2600</v>
-      </c>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>-19200</v>
-      </c>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>-5600</v>
-      </c>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>-8000</v>
-      </c>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>-2200</v>
-      </c>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>-7400</v>
-      </c>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>-1500</v>
-      </c>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B92"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aluguel/devolucoes/trades_cash.xlsx
+++ b/Aluguel/devolucoes/trades_cash.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>codigo</t>
   </si>
@@ -246,6 +246,66 @@
   </si>
   <si>
     <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>ECOR3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VIIA3</t>
   </si>
 </sst>
 </file>
@@ -573,13 +633,13 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,631 +652,731 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3">
-        <v>-42732</v>
+        <v>-4080</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>-33289</v>
+        <v>-89208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>-32100</v>
+        <v>-12152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
-        <v>-30660</v>
+        <v>-8368</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3">
-        <v>-27588</v>
+        <v>-6672</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>-27153</v>
+        <v>-121944</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3">
-        <v>-20458</v>
+        <v>-105096</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>-19056</v>
+        <v>-30888</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>-17134</v>
+        <v>-28928</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3">
-        <v>-14979</v>
+        <v>-6944</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3">
-        <v>-12375</v>
+        <v>-7384</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>-10748</v>
+        <v>-13672</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>-10373</v>
+        <v>-26504</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>-10042</v>
+        <v>-16864</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3">
-        <v>-10039</v>
+        <v>-5120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>-9704</v>
+        <v>-5392</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>-9146</v>
+        <v>-21920</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
-        <v>-8839</v>
+        <v>-7288</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>-8365</v>
+        <v>-4944</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>-8208</v>
+        <v>-29496</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>-8100</v>
+        <v>-31840</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
-        <v>-7950</v>
+        <v>-76752</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3">
-        <v>-7901</v>
+        <v>-23304</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>-7842</v>
+        <v>-37224</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
-        <v>-7756</v>
+        <v>-3192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3">
-        <v>-7738</v>
+        <v>-22720</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3">
-        <v>-7173</v>
+        <v>-6544</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3">
-        <v>-6892</v>
+        <v>-6920</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
-        <v>-6855</v>
+        <v>-13080</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
-        <v>-5882</v>
+        <v>-23848</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3">
-        <v>-5600</v>
+        <v>-3816</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3">
-        <v>-5207</v>
+        <v>-22816</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>-5150</v>
+        <v>-4560</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
-        <v>-4637</v>
+        <v>-5728</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3">
-        <v>-4519</v>
+        <v>-6016</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3">
-        <v>-4462</v>
+        <v>-6904</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3">
-        <v>-4108</v>
+        <v>-14960</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3">
-        <v>-3763</v>
+        <v>-4696</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3">
-        <v>-3681</v>
+        <v>-5056</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B41" s="3">
-        <v>-3672</v>
+        <v>-25608</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B42" s="3">
-        <v>-3602</v>
+        <v>-5192</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3">
-        <v>-3573</v>
+        <v>-22408</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B44" s="3">
-        <v>-3424</v>
+        <v>-2040</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3">
-        <v>-3409</v>
+        <v>-6176</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3">
-        <v>-3278</v>
+        <v>-22352</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3">
-        <v>-3228</v>
+        <v>-3400</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3">
-        <v>-3037</v>
+        <v>-9960</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3">
-        <v>-2999</v>
+        <v>-90720</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3">
-        <v>-2948</v>
+        <v>-8352</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3">
-        <v>-2591</v>
+        <v>-3664</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B52" s="3">
-        <v>-2539</v>
+        <v>-25560</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3">
-        <v>-2392</v>
+        <v>-97368</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3">
-        <v>-2319</v>
+        <v>-96456</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3">
-        <v>-2113</v>
+        <v>-26280</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3">
-        <v>-1994</v>
+        <v>-6224</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3">
-        <v>-1868</v>
+        <v>-16552</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
-        <v>-1810</v>
+        <v>-12104</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3">
-        <v>-1684</v>
+        <v>-8528</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3">
-        <v>-1657</v>
+        <v>-19912</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B61" s="3">
-        <v>-1591</v>
+        <v>-58984</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B62" s="3">
-        <v>-1578</v>
+        <v>-7088</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B63" s="3">
-        <v>-1499</v>
+        <v>-11032</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3">
-        <v>-1441</v>
+        <v>-14216</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B65" s="3">
-        <v>-1321</v>
+        <v>-5296</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3">
-        <v>-1189</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B67" s="3">
-        <v>-1165</v>
+        <v>-5552</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B68" s="3">
-        <v>-1147</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B69" s="3">
-        <v>-1015</v>
+        <v>-6840</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B70" s="3">
-        <v>-785</v>
+        <v>-17088</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B71" s="3">
-        <v>-725</v>
+        <v>-93000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B72" s="3">
-        <v>-137</v>
+        <v>-55112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="3">
+        <v>-1568</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="3">
+        <v>-5640</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="3">
+        <v>-21808</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="3">
+        <v>-15720</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="3">
+        <v>-24760</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="3">
+        <v>-4096</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3">
+        <v>-16176</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="3">
+        <v>-1960</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
+      <c r="A81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="3">
+        <v>-5760</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="3">
+        <v>-14800</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="3">
+        <v>-8424</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="3">
+        <v>-16464</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="3">
+        <v>-10584</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="3">
+        <v>-4448</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="3">
+        <v>-22112</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="3">
+        <v>-10480</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3">
+        <v>-32504</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="3">
+        <v>-23048</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="3">
+        <v>-30240</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="3">
+        <v>-6120</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
